--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB4BC9-4D84-4DAE-A40F-EC95E5107C9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F73B8B5-AB95-4601-86E2-4B231781867A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Indeks</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>Ocena w górę</t>
+  </si>
+  <si>
+    <t>min 3</t>
   </si>
 </sst>
 </file>
@@ -90,7 +96,10 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -108,16 +117,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:I16" totalsRowShown="0">
-  <autoFilter ref="B2:I16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:J16" totalsRowShown="0">
+  <autoFilter ref="B2:J16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0FBDB4CB-1B1D-48F5-8ED7-94298923BBF0}" name="Indeks"/>
     <tableColumn id="2" xr3:uid="{2931826C-C6A7-48B0-8E47-DDB056A4F9BB}" name="1"/>
     <tableColumn id="3" xr3:uid="{89986A20-BCD3-4744-BB94-4E1240FDA4C1}" name="2"/>
     <tableColumn id="4" xr3:uid="{B30BACE9-08E2-4294-84EA-C81041A0FBAA}" name="3"/>
     <tableColumn id="5" xr3:uid="{5AEBBF07-91BB-47A1-A413-0EE385BF7C28}" name="4"/>
-    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="1">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[1]:[4]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{21D4811C-8277-46E6-83B8-B8AB56F37686}" name="Ocena w górę" dataDxfId="0">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{33C53777-A348-4AAA-8673-B5E5CAAC2941}" name="Zadanie domowe"/>
     <tableColumn id="8" xr3:uid="{FE5A378B-4ACF-4B43-9516-84C7ED30F704}" name="Kolos"/>
@@ -389,21 +401,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -423,13 +435,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>152252</v>
       </c>
@@ -446,8 +461,12 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156312</v>
       </c>
@@ -458,8 +477,12 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156313</v>
       </c>
@@ -473,8 +496,12 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>156314</v>
       </c>
@@ -488,8 +515,12 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>156315</v>
       </c>
@@ -503,8 +534,12 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>158841</v>
       </c>
@@ -524,8 +559,15 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>156319</v>
       </c>
@@ -539,8 +581,12 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>156320</v>
       </c>
@@ -554,8 +600,12 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>156321</v>
       </c>
@@ -569,8 +619,12 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>156323</v>
       </c>
@@ -581,8 +635,12 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>152231</v>
       </c>
@@ -596,8 +654,12 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>152235</v>
       </c>
@@ -611,8 +673,12 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>156339</v>
       </c>
@@ -623,8 +689,12 @@
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>148921</v>
       </c>
@@ -634,6 +704,10 @@
       <c r="G16">
         <f>SUM(Tabela1[[#This Row],[1]:[4]])</f>
         <v>1</v>
+      </c>
+      <c r="H16">
+        <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F73B8B5-AB95-4601-86E2-4B231781867A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BCAF73-F5F2-4F61-A926-BECBF3B793F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t>Indeks</t>
   </si>
@@ -54,7 +54,10 @@
     <t>Ocena w górę</t>
   </si>
   <si>
-    <t>min 3</t>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Kolos Pkt2</t>
   </si>
 </sst>
 </file>
@@ -70,12 +73,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,13 +99,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -117,22 +137,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:J16" totalsRowShown="0">
-  <autoFilter ref="B2:J16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:L16" totalsRowShown="0">
+  <autoFilter ref="B2:L16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{0FBDB4CB-1B1D-48F5-8ED7-94298923BBF0}" name="Indeks"/>
     <tableColumn id="2" xr3:uid="{2931826C-C6A7-48B0-8E47-DDB056A4F9BB}" name="1"/>
     <tableColumn id="3" xr3:uid="{89986A20-BCD3-4744-BB94-4E1240FDA4C1}" name="2"/>
     <tableColumn id="4" xr3:uid="{B30BACE9-08E2-4294-84EA-C81041A0FBAA}" name="3"/>
     <tableColumn id="5" xr3:uid="{5AEBBF07-91BB-47A1-A413-0EE385BF7C28}" name="4"/>
-    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="4">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[1]:[4]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{21D4811C-8277-46E6-83B8-B8AB56F37686}" name="Ocena w górę" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{21D4811C-8277-46E6-83B8-B8AB56F37686}" name="Ocena w górę" dataDxfId="3">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{33C53777-A348-4AAA-8673-B5E5CAAC2941}" name="Zadanie domowe"/>
-    <tableColumn id="8" xr3:uid="{FE5A378B-4ACF-4B43-9516-84C7ED30F704}" name="Kolos"/>
+    <tableColumn id="10" xr3:uid="{A0DF0FD7-9E9A-4683-9D9F-233B739A26F0}" name="MIN" dataDxfId="2">
+      <calculatedColumnFormula>1.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{E39718A7-79EC-42C6-B2AA-F02EB50353B1}" name="Kolos Pkt2" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{BE63DC7A-EBE7-4D4F-A7D3-00A9092B86A5}" name="Kolos" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -401,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J16"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,7 +441,7 @@
     <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -441,10 +467,16 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>152252</v>
       </c>
@@ -465,8 +497,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="2">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156312</v>
       </c>
@@ -481,8 +523,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156313</v>
       </c>
@@ -500,8 +552,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0.85</v>
+      </c>
+      <c r="L5" s="1">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>156314</v>
       </c>
@@ -519,8 +581,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0.85</v>
+      </c>
+      <c r="L6" s="1">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>156315</v>
       </c>
@@ -538,8 +610,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0.85</v>
+      </c>
+      <c r="L7" s="1">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>158841</v>
       </c>
@@ -563,11 +645,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1.5</v>
       </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>0.85</v>
+      </c>
+      <c r="L8" s="1">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>156319</v>
       </c>
@@ -585,8 +674,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="1">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>156320</v>
       </c>
@@ -604,8 +703,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1.85</v>
+      </c>
+      <c r="L10" s="1">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>156321</v>
       </c>
@@ -623,8 +732,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L11" s="1">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>156323</v>
       </c>
@@ -639,8 +758,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="2">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>152231</v>
       </c>
@@ -658,8 +787,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>152235</v>
       </c>
@@ -677,8 +816,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="2">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>156339</v>
       </c>
@@ -693,8 +842,18 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="2">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>148921</v>
       </c>
@@ -708,6 +867,16 @@
       <c r="H16">
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>0.5</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0.75</v>
+      </c>
+      <c r="L16" s="2">
+        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BCAF73-F5F2-4F61-A926-BECBF3B793F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDA5548-66C0-4576-AF0C-38856F506130}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Indeks</t>
   </si>
@@ -58,13 +58,19 @@
   </si>
   <si>
     <t>Kolos Pkt2</t>
+  </si>
+  <si>
+    <t>Ocena wg. zasad zaliczenia</t>
+  </si>
+  <si>
+    <t>Ocena wg. średniej</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +78,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +100,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -96,18 +116,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% — akcent 5" xfId="1" builtinId="46"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -137,27 +166,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:L16" totalsRowShown="0">
-  <autoFilter ref="B2:L16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:N16" totalsRowShown="0">
+  <autoFilter ref="B2:N16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{0FBDB4CB-1B1D-48F5-8ED7-94298923BBF0}" name="Indeks"/>
     <tableColumn id="2" xr3:uid="{2931826C-C6A7-48B0-8E47-DDB056A4F9BB}" name="1"/>
     <tableColumn id="3" xr3:uid="{89986A20-BCD3-4744-BB94-4E1240FDA4C1}" name="2"/>
     <tableColumn id="4" xr3:uid="{B30BACE9-08E2-4294-84EA-C81041A0FBAA}" name="3"/>
     <tableColumn id="5" xr3:uid="{5AEBBF07-91BB-47A1-A413-0EE385BF7C28}" name="4"/>
-    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="6">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[1]:[4]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{21D4811C-8277-46E6-83B8-B8AB56F37686}" name="Ocena w górę" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{21D4811C-8277-46E6-83B8-B8AB56F37686}" name="Ocena w górę" dataDxfId="5">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{33C53777-A348-4AAA-8673-B5E5CAAC2941}" name="Zadanie domowe"/>
-    <tableColumn id="10" xr3:uid="{A0DF0FD7-9E9A-4683-9D9F-233B739A26F0}" name="MIN" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{A0DF0FD7-9E9A-4683-9D9F-233B739A26F0}" name="MIN" dataDxfId="4">
       <calculatedColumnFormula>1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E39718A7-79EC-42C6-B2AA-F02EB50353B1}" name="Kolos Pkt2" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{BE63DC7A-EBE7-4D4F-A7D3-00A9092B86A5}" name="Kolos" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{E39718A7-79EC-42C6-B2AA-F02EB50353B1}" name="Kolos Pkt2" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{BE63DC7A-EBE7-4D4F-A7D3-00A9092B86A5}" name="Kolos" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{22B37EED-C50D-4980-8D14-69BE2C268985}" name="Ocena wg. zasad zaliczenia" dataDxfId="1">
+      <calculatedColumnFormula>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{125502EC-C9D6-4DF5-8DDC-6E19260B6887}" name="Ocena wg. średniej" dataDxfId="0">
+      <calculatedColumnFormula>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -427,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +476,7 @@
     <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -475,8 +510,14 @@
       <c r="L2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>152252</v>
       </c>
@@ -507,8 +548,16 @@
         <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>3.5</v>
+      </c>
+      <c r="N3" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156312</v>
       </c>
@@ -533,8 +582,16 @@
         <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156313</v>
       </c>
@@ -552,6 +609,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1.5</v>
       </c>
+      <c r="I5">
+        <v>3.5</v>
+      </c>
       <c r="J5">
         <v>2</v>
       </c>
@@ -562,8 +622,16 @@
         <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>4.5</v>
+      </c>
+      <c r="N5" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>156314</v>
       </c>
@@ -591,8 +659,16 @@
         <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>4</v>
+      </c>
+      <c r="N6" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>156315</v>
       </c>
@@ -610,6 +686,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
       <c r="J7">
         <v>2</v>
       </c>
@@ -620,8 +699,16 @@
         <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>4</v>
+      </c>
+      <c r="N7" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>158841</v>
       </c>
@@ -655,8 +742,16 @@
         <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>4.5</v>
+      </c>
+      <c r="N8" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>156319</v>
       </c>
@@ -674,6 +769,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
       <c r="J9">
         <v>2</v>
       </c>
@@ -684,8 +782,16 @@
         <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>4.5</v>
+      </c>
+      <c r="N9" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>156320</v>
       </c>
@@ -703,6 +809,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>3.5</v>
+      </c>
       <c r="J10">
         <v>2</v>
       </c>
@@ -713,8 +822,16 @@
         <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>4.5</v>
+      </c>
+      <c r="N10" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>156321</v>
       </c>
@@ -732,6 +849,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>3.5</v>
+      </c>
       <c r="J11">
         <v>2</v>
       </c>
@@ -742,8 +862,16 @@
         <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>4</v>
+      </c>
+      <c r="N11" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>156323</v>
       </c>
@@ -758,6 +886,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>0</v>
       </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
       <c r="J12">
         <v>2</v>
       </c>
@@ -765,11 +896,18 @@
         <v>0.5</v>
       </c>
       <c r="L12" s="2">
-        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="N12" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>152231</v>
       </c>
@@ -797,8 +935,16 @@
         <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>3.5</v>
+      </c>
+      <c r="N13" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>152235</v>
       </c>
@@ -816,6 +962,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>0.5</v>
       </c>
+      <c r="I14">
+        <v>2.5</v>
+      </c>
       <c r="J14">
         <v>2</v>
       </c>
@@ -826,8 +975,16 @@
         <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>3</v>
+      </c>
+      <c r="N14" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>156339</v>
       </c>
@@ -842,6 +999,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>0.5</v>
       </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
       <c r="J15">
         <v>2</v>
       </c>
@@ -849,11 +1009,18 @@
         <v>0.5</v>
       </c>
       <c r="L15" s="2">
-        <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>3</v>
+      </c>
+      <c r="N15" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>148921</v>
       </c>
@@ -868,6 +1035,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>0.5</v>
       </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
       <c r="J16">
         <v>2</v>
       </c>
@@ -877,6 +1047,20 @@
       <c r="L16" s="2">
         <f>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</f>
         <v>2.5</v>
+      </c>
+      <c r="M16" s="1">
+        <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
+        <v>3</v>
+      </c>
+      <c r="N16" s="1">
+        <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <f>AVERAGE(Tabela1[Ocena wg. średniej])</f>
+        <v>3.1785714285714284</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDA5548-66C0-4576-AF0C-38856F506130}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B812C9CE-6652-4870-86EA-B4785621CB56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,6 +649,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>3.5</v>
+      </c>
       <c r="J6">
         <v>2</v>
       </c>
@@ -665,7 +668,7 @@
       </c>
       <c r="N6" s="1">
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -1060,7 +1063,7 @@
     <row r="21" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N21">
         <f>AVERAGE(Tabela1[Ocena wg. średniej])</f>
-        <v>3.1785714285714284</v>
+        <v>3.2857142857142856</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B812C9CE-6652-4870-86EA-B4785621CB56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBFA4A7-A5D9-4E9C-B538-89A86BCE677C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,15 +899,15 @@
         <v>0.5</v>
       </c>
       <c r="L12" s="2">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M12" s="1">
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N12" s="1">
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -1063,7 +1063,7 @@
     <row r="21" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N21">
         <f>AVERAGE(Tabela1[Ocena wg. średniej])</f>
-        <v>3.2857142857142856</v>
+        <v>3.3214285714285716</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBFA4A7-A5D9-4E9C-B538-89A86BCE677C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95431A3A-9284-4AE3-A86C-041F4267B7E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Indeks</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Ocena wg. średniej</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,10 @@
     <cellStyle name="20% — akcent 5" xfId="1" builtinId="46"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -166,33 +172,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:N16" totalsRowShown="0">
-  <autoFilter ref="B2:N16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93C8B405-6134-4B49-ABFC-C38F0DE0E9C4}" name="Tabela1" displayName="Tabela1" ref="B2:O16" totalsRowShown="0">
+  <autoFilter ref="B2:O16" xr:uid="{140AA9E0-1F46-414B-BB32-F5A5284D2670}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{0FBDB4CB-1B1D-48F5-8ED7-94298923BBF0}" name="Indeks"/>
     <tableColumn id="2" xr3:uid="{2931826C-C6A7-48B0-8E47-DDB056A4F9BB}" name="1"/>
     <tableColumn id="3" xr3:uid="{89986A20-BCD3-4744-BB94-4E1240FDA4C1}" name="2"/>
     <tableColumn id="4" xr3:uid="{B30BACE9-08E2-4294-84EA-C81041A0FBAA}" name="3"/>
     <tableColumn id="5" xr3:uid="{5AEBBF07-91BB-47A1-A413-0EE385BF7C28}" name="4"/>
-    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{94FB0D4A-8527-4D5D-8E45-9B3A57A9650C}" name="Suma aktywności" dataDxfId="7">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[1]:[4]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{21D4811C-8277-46E6-83B8-B8AB56F37686}" name="Ocena w górę" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{21D4811C-8277-46E6-83B8-B8AB56F37686}" name="Ocena w górę" dataDxfId="6">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{33C53777-A348-4AAA-8673-B5E5CAAC2941}" name="Zadanie domowe"/>
-    <tableColumn id="10" xr3:uid="{A0DF0FD7-9E9A-4683-9D9F-233B739A26F0}" name="MIN" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{A0DF0FD7-9E9A-4683-9D9F-233B739A26F0}" name="MIN" dataDxfId="5">
       <calculatedColumnFormula>1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E39718A7-79EC-42C6-B2AA-F02EB50353B1}" name="Kolos Pkt2" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{BE63DC7A-EBE7-4D4F-A7D3-00A9092B86A5}" name="Kolos" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{E39718A7-79EC-42C6-B2AA-F02EB50353B1}" name="Kolos Pkt2" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{BE63DC7A-EBE7-4D4F-A7D3-00A9092B86A5}" name="Kolos" dataDxfId="3">
       <calculatedColumnFormula>IFERROR(MROUND(Tabela1[[#This Row],[Kolos Pkt2]]-0.01, 0.5) +2,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{22B37EED-C50D-4980-8D14-69BE2C268985}" name="Ocena wg. zasad zaliczenia" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{22B37EED-C50D-4980-8D14-69BE2C268985}" name="Ocena wg. zasad zaliczenia" dataDxfId="2">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{125502EC-C9D6-4DF5-8DDC-6E19260B6887}" name="Ocena wg. średniej" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{125502EC-C9D6-4DF5-8DDC-6E19260B6887}" name="Ocena wg. średniej" dataDxfId="1">
       <calculatedColumnFormula>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{BCC0B1E3-F931-426D-A54F-164E2F91D21E}" name="Kolumna1" dataDxfId="0">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -462,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N21"/>
+  <dimension ref="B2:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +485,7 @@
     <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -516,8 +525,11 @@
       <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>152252</v>
       </c>
@@ -556,8 +568,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>156312</v>
       </c>
@@ -590,8 +606,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>156313</v>
       </c>
@@ -630,8 +650,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>156314</v>
       </c>
@@ -670,8 +694,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>156315</v>
       </c>
@@ -710,8 +738,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>158841</v>
       </c>
@@ -753,8 +785,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>156319</v>
       </c>
@@ -793,8 +829,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>156320</v>
       </c>
@@ -833,8 +873,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>156321</v>
       </c>
@@ -873,8 +917,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>156323</v>
       </c>
@@ -909,8 +957,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>152231</v>
       </c>
@@ -946,8 +998,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>152235</v>
       </c>
@@ -986,8 +1042,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>156339</v>
       </c>
@@ -1022,8 +1082,12 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>148921</v>
       </c>
@@ -1057,6 +1121,10 @@
       </c>
       <c r="N16" s="1">
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
+        <v>3</v>
+      </c>
+      <c r="O16" s="1">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
         <v>3</v>
       </c>
     </row>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95431A3A-9284-4AE3-A86C-041F4267B7E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DB5181-C99A-4AE0-870A-C0A184CD691A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,14 +66,14 @@
     <t>Ocena wg. średniej</t>
   </si>
   <si>
-    <t>Kolumna1</t>
+    <t>Ocena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +89,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +117,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -119,19 +132,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="20% — akcent 5" xfId="1" builtinId="46"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -200,7 +216,7 @@
     <tableColumn id="13" xr3:uid="{125502EC-C9D6-4DF5-8DDC-6E19260B6887}" name="Ocena wg. średniej" dataDxfId="1">
       <calculatedColumnFormula>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{BCC0B1E3-F931-426D-A54F-164E2F91D21E}" name="Kolumna1" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{BCC0B1E3-F931-426D-A54F-164E2F91D21E}" name="Ocena" dataDxfId="0">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -474,7 +490,7 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +584,7 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>2</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
         <v>2</v>
       </c>
@@ -606,7 +622,7 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
         <v>2</v>
       </c>
@@ -998,7 +1014,7 @@
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
         <v>2</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
         <v>2</v>
       </c>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DB5181-C99A-4AE0-870A-C0A184CD691A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E2CA9C-9C38-4EFF-B03D-6992A7D4B993}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,6 +566,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
       <c r="J3">
         <v>2</v>
       </c>
@@ -578,15 +581,15 @@
       </c>
       <c r="M3" s="1">
         <f>MIN(Tabela1[[#This Row],[Zadanie domowe]],Tabela1[[#This Row],[Kolos]])+Tabela1[[#This Row],[Ocena w górę]]</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N3" s="1">
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
-        <v>2</v>
-      </c>
-      <c r="O3" s="4">
-        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
@@ -1147,7 +1150,7 @@
     <row r="21" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N21">
         <f>AVERAGE(Tabela1[Ocena wg. średniej])</f>
-        <v>3.3214285714285716</v>
+        <v>3.3928571428571428</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E2CA9C-9C38-4EFF-B03D-6992A7D4B993}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26A886B-D5D3-40DC-97B4-B8958EA91562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,6 +999,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>0.5</v>
       </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
       <c r="J13">
         <v>2</v>
       </c>
@@ -1015,11 +1018,11 @@
       </c>
       <c r="N13" s="1">
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
-        <v>2</v>
-      </c>
-      <c r="O13" s="4">
-        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
-        <v>2</v>
+        <v>3.5</v>
+      </c>
+      <c r="O13">
+        <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -1150,7 +1153,7 @@
     <row r="21" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N21">
         <f>AVERAGE(Tabela1[Ocena wg. średniej])</f>
-        <v>3.3928571428571428</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratorium/Oceny.xlsx
+++ b/Laboratorium/Oceny.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26A886B-D5D3-40DC-97B4-B8958EA91562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827090F-0B86-41A5-868F-92C3B91D0D8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,6 +786,9 @@
         <f>IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=1,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=2,IF(Tabela1[[#This Row],[Suma aktywności]]&gt;=3,1.5,1),0.5),0)</f>
         <v>1.5</v>
       </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
       <c r="J8">
         <v>3</v>
       </c>
@@ -802,11 +805,11 @@
       </c>
       <c r="N8" s="1">
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1">
         <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
@@ -1125,7 +1128,7 @@
         <v>0.5</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1143,17 +1146,17 @@
       </c>
       <c r="N16" s="1">
         <f>MROUND((Tabela1[[#This Row],[Zadanie domowe]]+Tabela1[[#This Row],[Kolos]])/2 +Tabela1[[#This Row],[Ocena w górę]]-0.001,0.5)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O16" s="1">
         <f>IF(Tabela1[[#This Row],[Ocena wg. średniej]]&gt;=3,Tabela1[[#This Row],[Ocena wg. średniej]],2)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N21">
         <f>AVERAGE(Tabela1[Ocena wg. średniej])</f>
-        <v>3.5</v>
+        <v>3.6785714285714284</v>
       </c>
     </row>
   </sheetData>
